--- a/data/trans_orig/IP3112_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3112_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9821A12-7388-4634-A22C-5C45C4B62F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D18D5D6D-E818-4E5D-A160-1EDFF42C8589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0E06F87C-9D04-41B4-B070-DEAAC420244B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{36947F0C-D123-49D6-B788-1137C89FE777}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,93 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente, no todos los días</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>Una vez al día</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
     <t>Dos veces al día</t>
   </si>
   <si>
@@ -98,63 +185,6 @@
     <t>37,22%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente, no todos los días</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
     <t>Tres o más veces al día</t>
   </si>
   <si>
@@ -185,42 +215,222 @@
     <t>14,23%</t>
   </si>
   <si>
-    <t>Una vez al día</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
     <t>54,6%</t>
   </si>
   <si>
@@ -248,57 +458,6 @@
     <t>56,43%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
     <t>17,43%</t>
   </si>
   <si>
@@ -326,163 +485,85 @@
     <t>24,2%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>49,63%</t>
@@ -509,60 +590,6 @@
     <t>52,02%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
     <t>16,26%</t>
   </si>
   <si>
@@ -588,33 +615,6 @@
   </si>
   <si>
     <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8573D3B6-0AAF-4414-BC73-F44330E6287C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEEF9CC-74EB-4D25-A273-595B8920A4E2}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1124,10 +1124,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>30159</v>
+        <v>18919</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1139,10 +1139,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>30877</v>
+        <v>15827</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1154,10 +1154,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="N4" s="7">
-        <v>61036</v>
+        <v>34746</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1175,76 +1175,76 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7">
-        <v>18919</v>
+        <v>17509</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7328</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7">
-        <v>15827</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>49</v>
+      </c>
+      <c r="N5" s="7">
+        <v>24837</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>67</v>
-      </c>
-      <c r="N5" s="7">
-        <v>34746</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>49</v>
+      </c>
+      <c r="D6" s="7">
+        <v>26119</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7">
-        <v>17509</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I6" s="7">
-        <v>7328</v>
+        <v>24984</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1256,10 +1256,10 @@
         <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N6" s="7">
-        <v>24837</v>
+        <v>51103</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1277,10 +1277,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7">
-        <v>8259</v>
+        <v>30159</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1292,10 +1292,10 @@
         <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I7" s="7">
-        <v>11243</v>
+        <v>30877</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1307,10 +1307,10 @@
         <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="N7" s="7">
-        <v>19502</v>
+        <v>61036</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1328,10 +1328,10 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>26119</v>
+        <v>8259</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1343,10 +1343,10 @@
         <v>52</v>
       </c>
       <c r="H8" s="7">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7">
-        <v>24984</v>
+        <v>11243</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>53</v>
@@ -1358,10 +1358,10 @@
         <v>55</v>
       </c>
       <c r="M8" s="7">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="N8" s="7">
-        <v>51103</v>
+        <v>19502</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>56</v>
@@ -1432,10 +1432,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>218893</v>
+        <v>2614</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1447,10 +1447,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>175820</v>
+        <v>4400</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1462,10 +1462,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>499</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>394712</v>
+        <v>7014</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1483,10 +1483,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>3356</v>
+        <v>10727</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1498,10 +1498,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>2369</v>
+        <v>6781</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1513,10 +1513,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N11" s="7">
-        <v>5724</v>
+        <v>17507</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1531,46 +1531,46 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D12" s="7">
-        <v>12507</v>
+        <v>52430</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="I12" s="7">
-        <v>6783</v>
+        <v>55831</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="N12" s="7">
-        <v>19290</v>
+        <v>108261</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>85</v>
@@ -1585,10 +1585,10 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D13" s="7">
-        <v>69875</v>
+        <v>100781</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>87</v>
@@ -1600,10 +1600,10 @@
         <v>89</v>
       </c>
       <c r="H13" s="7">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="I13" s="7">
-        <v>89883</v>
+        <v>104451</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>90</v>
@@ -1615,10 +1615,10 @@
         <v>92</v>
       </c>
       <c r="M13" s="7">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="N13" s="7">
-        <v>159758</v>
+        <v>205232</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>93</v>
@@ -1636,10 +1636,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>96289</v>
+        <v>36467</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>96</v>
@@ -1651,10 +1651,10 @@
         <v>98</v>
       </c>
       <c r="H14" s="7">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>73637</v>
+        <v>26414</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>99</v>
@@ -1666,10 +1666,10 @@
         <v>101</v>
       </c>
       <c r="M14" s="7">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="N14" s="7">
-        <v>169926</v>
+        <v>62880</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>102</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>477</v>
+        <v>268</v>
       </c>
       <c r="D15" s="7">
-        <v>400920</v>
+        <v>203019</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -1702,10 +1702,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="I15" s="7">
-        <v>348491</v>
+        <v>197877</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -1717,10 +1717,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>937</v>
+        <v>548</v>
       </c>
       <c r="N15" s="7">
-        <v>749410</v>
+        <v>400895</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -1740,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>100781</v>
+        <v>3356</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -1755,10 +1755,10 @@
         <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>104451</v>
+        <v>2369</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -1770,10 +1770,10 @@
         <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>275</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>205232</v>
+        <v>5724</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -1791,100 +1791,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>2614</v>
+        <v>12507</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6783</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4400</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>22</v>
+      </c>
+      <c r="N17" s="7">
+        <v>19290</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7">
-        <v>7014</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="D18" s="7">
-        <v>10727</v>
+        <v>96289</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>90</v>
+      </c>
+      <c r="I18" s="7">
+        <v>73637</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6781</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>205</v>
+      </c>
+      <c r="N18" s="7">
+        <v>169926</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M18" s="7">
-        <v>24</v>
-      </c>
-      <c r="N18" s="7">
-        <v>17507</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,49 +1893,49 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="D19" s="7">
-        <v>36467</v>
+        <v>218893</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>245</v>
+      </c>
+      <c r="I19" s="7">
+        <v>175820</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="7">
-        <v>38</v>
-      </c>
-      <c r="I19" s="7">
-        <v>26414</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>499</v>
+      </c>
+      <c r="N19" s="7">
+        <v>394712</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M19" s="7">
-        <v>83</v>
-      </c>
-      <c r="N19" s="7">
-        <v>62880</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,43 +1944,43 @@
         <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D20" s="7">
-        <v>52430</v>
+        <v>69875</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>116</v>
+      </c>
+      <c r="I20" s="7">
+        <v>89883</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="7">
-        <v>81</v>
-      </c>
-      <c r="I20" s="7">
-        <v>55831</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>205</v>
+      </c>
+      <c r="N20" s="7">
+        <v>159758</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="M20" s="7">
-        <v>156</v>
-      </c>
-      <c r="N20" s="7">
-        <v>108261</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>147</v>
@@ -1995,10 +1995,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>268</v>
+        <v>477</v>
       </c>
       <c r="D21" s="7">
-        <v>203019</v>
+        <v>400920</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -2010,10 +2010,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>280</v>
+        <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>197877</v>
+        <v>348491</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2025,10 +2025,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>548</v>
+        <v>937</v>
       </c>
       <c r="N21" s="7">
-        <v>400895</v>
+        <v>749410</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -2048,10 +2048,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>440</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7">
-        <v>349833</v>
+        <v>24889</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>149</v>
@@ -2063,10 +2063,10 @@
         <v>151</v>
       </c>
       <c r="H22" s="7">
-        <v>444</v>
+        <v>38</v>
       </c>
       <c r="I22" s="7">
-        <v>311148</v>
+        <v>22596</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>152</v>
@@ -2078,19 +2078,19 @@
         <v>154</v>
       </c>
       <c r="M22" s="7">
-        <v>884</v>
+        <v>83</v>
       </c>
       <c r="N22" s="7">
-        <v>660981</v>
+        <v>47485</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,100 +2099,100 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D23" s="7">
-        <v>24889</v>
+        <v>40743</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I23" s="7">
-        <v>22596</v>
+        <v>20891</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N23" s="7">
-        <v>47485</v>
+        <v>61634</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="D24" s="7">
-        <v>40743</v>
+        <v>174838</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="I24" s="7">
-        <v>20891</v>
+        <v>154453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
-        <v>95</v>
+        <v>458</v>
       </c>
       <c r="N24" s="7">
-        <v>61634</v>
+        <v>329291</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,43 +2201,43 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>148</v>
+        <v>440</v>
       </c>
       <c r="D25" s="7">
-        <v>114601</v>
+        <v>349833</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
-        <v>175</v>
+        <v>444</v>
       </c>
       <c r="I25" s="7">
-        <v>127540</v>
+        <v>311148</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
-        <v>323</v>
+        <v>884</v>
       </c>
       <c r="N25" s="7">
-        <v>242141</v>
+        <v>660981</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>182</v>
@@ -2252,10 +2252,10 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="D26" s="7">
-        <v>174838</v>
+        <v>114601</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>184</v>
@@ -2267,10 +2267,10 @@
         <v>186</v>
       </c>
       <c r="H26" s="7">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="I26" s="7">
-        <v>154453</v>
+        <v>127540</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>187</v>
@@ -2282,10 +2282,10 @@
         <v>189</v>
       </c>
       <c r="M26" s="7">
-        <v>458</v>
+        <v>323</v>
       </c>
       <c r="N26" s="7">
-        <v>329291</v>
+        <v>242141</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>190</v>

--- a/data/trans_orig/IP3112_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3112_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D18D5D6D-E818-4E5D-A160-1EDFF42C8589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA5AA63-F5C9-45E3-8DD1-002EC47DA397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{36947F0C-D123-49D6-B788-1137C89FE777}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5458A1A-29BB-4D0B-B6B8-77A4318B13DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="235">
   <si>
     <t>Menores según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 95,99%)</t>
   </si>
@@ -65,556 +65,682 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Tres o más veces al día</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>Dos veces al día</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>Una vez al día</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente, no todos los días</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente, no todos los días</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>Una vez al día</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>Dos veces al día</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>Tres o más veces al día</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
+    <t>12,96%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>2,8%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -625,7 +751,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -721,39 +847,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -805,7 +931,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -916,13 +1042,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -931,6 +1050,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -995,19 +1121,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEEF9CC-74EB-4D25-A273-595B8920A4E2}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A18E53-77A9-49F0-907F-29A5A5295855}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1124,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>18919</v>
+        <v>1518</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1139,10 +1285,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>15827</v>
+        <v>5216</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1154,10 +1300,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>34746</v>
+        <v>6734</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1175,97 +1321,97 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>17509</v>
+        <v>8933</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>7328</v>
+        <v>11082</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>24837</v>
+        <v>20015</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>26119</v>
+        <v>7976</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>24984</v>
+        <v>10730</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="7">
         <v>34</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="N6" s="7">
+        <v>18706</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="M6" s="7">
-        <v>97</v>
-      </c>
-      <c r="N6" s="7">
-        <v>51103</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>38</v>
@@ -1277,10 +1423,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>30159</v>
+        <v>7515</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1292,10 +1438,10 @@
         <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>30877</v>
+        <v>4309</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1307,10 +1453,10 @@
         <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>61036</v>
+        <v>11824</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1328,10 +1474,10 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>8259</v>
+        <v>16814</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1343,10 +1489,10 @@
         <v>52</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>11243</v>
+        <v>12489</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>53</v>
@@ -1358,10 +1504,10 @@
         <v>55</v>
       </c>
       <c r="M8" s="7">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N8" s="7">
-        <v>19502</v>
+        <v>29302</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>56</v>
@@ -1379,10 +1525,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7">
-        <v>100965</v>
+        <v>42756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -1394,10 +1540,10 @@
         <v>59</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="I9" s="7">
-        <v>90260</v>
+        <v>43826</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -1409,10 +1555,10 @@
         <v>59</v>
       </c>
       <c r="M9" s="7">
-        <v>358</v>
+        <v>158</v>
       </c>
       <c r="N9" s="7">
-        <v>191225</v>
+        <v>86581</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -1432,10 +1578,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>2614</v>
+        <v>27882</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1447,10 +1593,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>4400</v>
+        <v>15022</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1462,10 +1608,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>7014</v>
+        <v>42903</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1483,10 +1629,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7">
-        <v>10727</v>
+        <v>76971</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1498,10 +1644,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>6781</v>
+        <v>76720</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1513,10 +1659,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="N11" s="7">
-        <v>17507</v>
+        <v>153691</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1531,13 +1677,13 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D12" s="7">
-        <v>52430</v>
+        <v>47188</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1549,10 +1695,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I12" s="7">
-        <v>55831</v>
+        <v>53563</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1564,19 +1710,19 @@
         <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="N12" s="7">
-        <v>108261</v>
+        <v>100751</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,49 +1731,49 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>100781</v>
+        <v>15810</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>104451</v>
+        <v>6163</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>205232</v>
+        <v>21973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,49 +1782,49 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>36467</v>
+        <v>4720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>26414</v>
+        <v>6906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N14" s="7">
-        <v>62880</v>
+        <v>11626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1687,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D15" s="7">
-        <v>203019</v>
+        <v>172570</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -1702,10 +1848,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="I15" s="7">
-        <v>197877</v>
+        <v>158374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -1717,10 +1863,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="N15" s="7">
-        <v>400895</v>
+        <v>330944</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -1734,55 +1880,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7">
-        <v>3356</v>
+        <v>36857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>2369</v>
+        <v>39564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="N16" s="7">
-        <v>5724</v>
+        <v>76421</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,100 +1937,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D17" s="7">
-        <v>12507</v>
+        <v>102356</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="I17" s="7">
-        <v>6783</v>
+        <v>94814</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="N17" s="7">
-        <v>19290</v>
+        <v>197170</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7">
+        <v>53105</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="7">
+        <v>48</v>
+      </c>
+      <c r="I18" s="7">
+        <v>34155</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="7">
         <v>115</v>
       </c>
-      <c r="D18" s="7">
-        <v>96289</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="7">
-        <v>90</v>
-      </c>
-      <c r="I18" s="7">
-        <v>73637</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M18" s="7">
-        <v>205</v>
-      </c>
       <c r="N18" s="7">
-        <v>169926</v>
+        <v>87260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,49 +2039,49 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>218893</v>
+        <v>8264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>175820</v>
+        <v>6748</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>394712</v>
+        <v>15013</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,46 +2090,46 @@
         <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>69875</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>89883</v>
+        <v>833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>159758</v>
+        <v>833</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>148</v>
@@ -1995,10 +2141,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>477</v>
+        <v>241</v>
       </c>
       <c r="D21" s="7">
-        <v>400920</v>
+        <v>200583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -2010,10 +2156,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>460</v>
+        <v>233</v>
       </c>
       <c r="I21" s="7">
-        <v>348491</v>
+        <v>176113</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2025,10 +2171,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>937</v>
+        <v>474</v>
       </c>
       <c r="N21" s="7">
-        <v>749410</v>
+        <v>376696</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -2042,49 +2188,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D22" s="7">
-        <v>24889</v>
+        <v>48344</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="7">
+        <v>87</v>
+      </c>
+      <c r="I22" s="7">
+        <v>67738</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" s="7">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="7">
-        <v>38</v>
-      </c>
-      <c r="I22" s="7">
-        <v>22596</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="N22" s="7">
+        <v>116083</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="M22" s="7">
-        <v>83</v>
-      </c>
-      <c r="N22" s="7">
-        <v>47485</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>156</v>
@@ -2099,10 +2245,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="D23" s="7">
-        <v>40743</v>
+        <v>161572</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>158</v>
@@ -2114,10 +2260,10 @@
         <v>160</v>
       </c>
       <c r="H23" s="7">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="I23" s="7">
-        <v>20891</v>
+        <v>128533</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>161</v>
@@ -2129,10 +2275,10 @@
         <v>163</v>
       </c>
       <c r="M23" s="7">
-        <v>95</v>
+        <v>368</v>
       </c>
       <c r="N23" s="7">
-        <v>61634</v>
+        <v>290105</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>164</v>
@@ -2147,13 +2293,13 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="D24" s="7">
-        <v>174838</v>
+        <v>66569</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>167</v>
@@ -2165,10 +2311,10 @@
         <v>169</v>
       </c>
       <c r="H24" s="7">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="I24" s="7">
-        <v>154453</v>
+        <v>56005</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>170</v>
@@ -2180,10 +2326,10 @@
         <v>172</v>
       </c>
       <c r="M24" s="7">
-        <v>458</v>
+        <v>144</v>
       </c>
       <c r="N24" s="7">
-        <v>329291</v>
+        <v>122573</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>173</v>
@@ -2201,10 +2347,10 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>440</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>349833</v>
+        <v>9153</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>176</v>
@@ -2216,10 +2362,10 @@
         <v>178</v>
       </c>
       <c r="H25" s="7">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>311148</v>
+        <v>3671</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>179</v>
@@ -2231,19 +2377,19 @@
         <v>181</v>
       </c>
       <c r="M25" s="7">
-        <v>884</v>
+        <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>660981</v>
+        <v>12824</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,10 +2398,10 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>114601</v>
+        <v>3356</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>184</v>
@@ -2267,34 +2413,34 @@
         <v>186</v>
       </c>
       <c r="H26" s="7">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>127540</v>
+        <v>2369</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>6</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5724</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="M26" s="7">
-        <v>323</v>
-      </c>
-      <c r="N26" s="7">
-        <v>242141</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,55 +2449,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>341</v>
+      </c>
+      <c r="D27" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>340</v>
+      </c>
+      <c r="I27" s="7">
+        <v>258315</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>681</v>
+      </c>
+      <c r="N27" s="7">
+        <v>547310</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>148</v>
+      </c>
+      <c r="D28" s="7">
+        <v>114601</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" s="7">
+        <v>175</v>
+      </c>
+      <c r="I28" s="7">
+        <v>127540</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M28" s="7">
+        <v>323</v>
+      </c>
+      <c r="N28" s="7">
+        <v>242141</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>440</v>
+      </c>
+      <c r="D29" s="7">
+        <v>349833</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="7">
+        <v>444</v>
+      </c>
+      <c r="I29" s="7">
+        <v>311148</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" s="7">
+        <v>884</v>
+      </c>
+      <c r="N29" s="7">
+        <v>660981</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7">
+        <v>239</v>
+      </c>
+      <c r="D30" s="7">
+        <v>174838</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" s="7">
+        <v>219</v>
+      </c>
+      <c r="I30" s="7">
+        <v>154453</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M30" s="7">
+        <v>458</v>
+      </c>
+      <c r="N30" s="7">
+        <v>329291</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="7">
+        <v>63</v>
+      </c>
+      <c r="D31" s="7">
+        <v>40743</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" s="7">
+        <v>32</v>
+      </c>
+      <c r="I31" s="7">
+        <v>20891</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M31" s="7">
+        <v>95</v>
+      </c>
+      <c r="N31" s="7">
+        <v>61634</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="7">
+        <v>45</v>
+      </c>
+      <c r="D32" s="7">
+        <v>24889</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="7">
+        <v>38</v>
+      </c>
+      <c r="I32" s="7">
+        <v>22596</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" s="7">
+        <v>83</v>
+      </c>
+      <c r="N32" s="7">
+        <v>47485</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>935</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>704904</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>908</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>636628</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>1843</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>1341531</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP3112_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3112_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA5AA63-F5C9-45E3-8DD1-002EC47DA397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CEB0A5B-7915-4274-A54B-79C5EC64FC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5458A1A-29BB-4D0B-B6B8-77A4318B13DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6482CFE6-879E-4B15-A862-C8F6AEE75E17}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="239">
   <si>
     <t>Menores según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 95,99%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>11,11%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>Dos veces al día</t>
@@ -104,28 +104,28 @@
     <t>20,89%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
   </si>
   <si>
     <t>Una vez al día</t>
@@ -134,25 +134,28 @@
     <t>18,65%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>29,81%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>Ocasionalmente, no todos los días</t>
@@ -161,28 +164,28 @@
     <t>17,58%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,28 +194,28 @@
     <t>39,33%</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>28,5%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
   </si>
   <si>
     <t>33,84%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -224,247 +227,247 @@
     <t>16,16%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>44,6%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>48,44%</t>
   </si>
   <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
   </si>
   <si>
     <t>46,44%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
   </si>
   <si>
     <t>27,34%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
   </si>
   <si>
     <t>33,82%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>2,05%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>0%</t>
@@ -476,13 +479,13 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -491,253 +494,262 @@
     <t>16,73%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>49,76%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>53,01%</t>
   </si>
   <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
   </si>
   <si>
     <t>23,03%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>20,05%</t>
   </si>
   <si>
     <t>49,63%</t>
   </si>
   <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
   </si>
   <si>
     <t>48,87%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
   </si>
   <si>
     <t>49,27%</t>
   </si>
   <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,64%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>4,98%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1152,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A18E53-77A9-49F0-907F-29A5A5295855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACA3352-AD31-444B-8CD8-F7C9C39AB304}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1411,16 +1423,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>16</v>
@@ -1429,13 +1441,13 @@
         <v>7515</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -1444,13 +1456,13 @@
         <v>4309</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -1459,19 +1471,19 @@
         <v>11824</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>32</v>
@@ -1480,13 +1492,13 @@
         <v>16814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -1495,13 +1507,13 @@
         <v>12489</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
@@ -1510,13 +1522,13 @@
         <v>29302</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,13 +1543,13 @@
         <v>42756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>78</v>
@@ -1546,13 +1558,13 @@
         <v>43826</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
@@ -1561,18 +1573,18 @@
         <v>86581</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1584,13 +1596,13 @@
         <v>27882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -1599,13 +1611,13 @@
         <v>15022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -1614,13 +1626,13 @@
         <v>42903</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,13 +1647,13 @@
         <v>76971</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>121</v>
@@ -1650,13 +1662,13 @@
         <v>76720</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -1665,13 +1677,13 @@
         <v>153691</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,13 +1698,13 @@
         <v>47188</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>86</v>
@@ -1701,13 +1713,13 @@
         <v>53563</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>165</v>
@@ -1716,19 +1728,19 @@
         <v>100751</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>26</v>
@@ -1737,13 +1749,13 @@
         <v>15810</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -1752,13 +1764,13 @@
         <v>6163</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -1767,19 +1779,19 @@
         <v>21973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>9</v>
@@ -1788,13 +1800,13 @@
         <v>4720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -1803,13 +1815,13 @@
         <v>6906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -1818,13 +1830,13 @@
         <v>11626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1851,13 @@
         <v>172570</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>257</v>
@@ -1854,13 +1866,13 @@
         <v>158374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>530</v>
@@ -1869,18 +1881,18 @@
         <v>330944</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1892,13 +1904,13 @@
         <v>36857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -1907,13 +1919,13 @@
         <v>39564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
@@ -1922,13 +1934,13 @@
         <v>76421</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +1955,13 @@
         <v>102356</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -1958,13 +1970,13 @@
         <v>94814</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>242</v>
@@ -1973,13 +1985,13 @@
         <v>197170</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +2006,13 @@
         <v>53105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -2009,13 +2021,13 @@
         <v>34155</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>115</v>
@@ -2024,19 +2036,19 @@
         <v>87260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>10</v>
@@ -2045,13 +2057,13 @@
         <v>8264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2060,13 +2072,13 @@
         <v>6748</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -2075,19 +2087,19 @@
         <v>15013</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2099,10 +2111,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2111,13 +2123,13 @@
         <v>833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2126,13 +2138,13 @@
         <v>833</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2159,13 @@
         <v>200583</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>233</v>
@@ -2162,13 +2174,13 @@
         <v>176113</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>474</v>
@@ -2177,18 +2189,18 @@
         <v>376696</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2200,13 +2212,13 @@
         <v>48344</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -2215,13 +2227,13 @@
         <v>67738</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>149</v>
@@ -2230,13 +2242,13 @@
         <v>116083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2263,13 @@
         <v>161572</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>182</v>
@@ -2266,13 +2278,13 @@
         <v>128533</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>368</v>
@@ -2281,13 +2293,13 @@
         <v>290105</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,13 +2314,13 @@
         <v>66569</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -2317,13 +2329,13 @@
         <v>56005</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>144</v>
@@ -2332,19 +2344,19 @@
         <v>122573</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>11</v>
@@ -2353,13 +2365,13 @@
         <v>9153</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2368,13 +2380,13 @@
         <v>3671</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2383,19 +2395,19 @@
         <v>12824</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>4</v>
@@ -2404,13 +2416,13 @@
         <v>3356</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2419,13 +2431,13 @@
         <v>2369</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2434,13 +2446,13 @@
         <v>5724</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2467,13 @@
         <v>288994</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>340</v>
@@ -2470,13 +2482,13 @@
         <v>258315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>681</v>
@@ -2485,13 +2497,13 @@
         <v>547310</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2520,13 @@
         <v>114601</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>175</v>
@@ -2523,13 +2535,13 @@
         <v>127540</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>323</v>
@@ -2538,13 +2550,13 @@
         <v>242141</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2571,13 @@
         <v>349833</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>444</v>
@@ -2574,13 +2586,13 @@
         <v>311148</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>884</v>
@@ -2589,13 +2601,13 @@
         <v>660981</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2622,13 @@
         <v>174838</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>219</v>
@@ -2625,13 +2637,13 @@
         <v>154453</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>458</v>
@@ -2640,19 +2652,19 @@
         <v>329291</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>63</v>
@@ -2661,13 +2673,13 @@
         <v>40743</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
@@ -2676,13 +2688,13 @@
         <v>20891</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>95</v>
@@ -2691,19 +2703,19 @@
         <v>61634</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>45</v>
@@ -2712,13 +2724,13 @@
         <v>24889</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -2730,10 +2742,10 @@
         <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -2742,13 +2754,13 @@
         <v>47485</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2775,13 @@
         <v>704904</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>908</v>
@@ -2778,13 +2790,13 @@
         <v>636628</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>1843</v>
@@ -2793,18 +2805,18 @@
         <v>1341531</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3112_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3112_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CEB0A5B-7915-4274-A54B-79C5EC64FC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EED08407-591C-4718-B276-F9C6F6D07FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6482CFE6-879E-4B15-A862-C8F6AEE75E17}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{7204FCB6-3E51-4949-8C1F-4718A90F8AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="233">
   <si>
     <t>Menores según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 95,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,685 +71,667 @@
     <t>Tres o más veces al día</t>
   </si>
   <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>Dos veces al día</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>Una vez al día</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente, no todos los días</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>Dos veces al día</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>Una vez al día</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente, no todos los días</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>4,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1164,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACA3352-AD31-444B-8CD8-F7C9C39AB304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5011C923-F4AC-49DD-8361-5E258E5B2020}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1282,10 +1264,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>1518</v>
+        <v>4984</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1297,10 +1279,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>5216</v>
+        <v>1737</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1315,7 +1297,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>6734</v>
+        <v>6721</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1333,10 +1315,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>8933</v>
+        <v>10857</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1348,10 +1330,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>11082</v>
+        <v>9130</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1366,7 +1348,7 @@
         <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>20015</v>
+        <v>19987</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1384,10 +1366,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>7976</v>
+        <v>10727</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1399,10 +1381,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>10730</v>
+        <v>8356</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1417,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>18706</v>
+        <v>19083</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1435,10 +1417,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>7515</v>
+        <v>4680</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1450,10 +1432,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>4309</v>
+        <v>7900</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1468,7 +1450,7 @@
         <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>11824</v>
+        <v>12580</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1486,10 +1468,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>16814</v>
+        <v>12789</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1501,10 +1483,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>12489</v>
+        <v>17765</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1519,7 +1501,7 @@
         <v>56</v>
       </c>
       <c r="N8" s="7">
-        <v>29302</v>
+        <v>30554</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1537,25 +1519,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>78</v>
+      </c>
+      <c r="D9" s="7">
+        <v>44036</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>80</v>
       </c>
-      <c r="D9" s="7">
-        <v>42756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="7">
-        <v>78</v>
-      </c>
       <c r="I9" s="7">
-        <v>43826</v>
+        <v>44889</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1570,7 +1552,7 @@
         <v>158</v>
       </c>
       <c r="N9" s="7">
-        <v>86581</v>
+        <v>88925</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1590,10 +1572,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>27882</v>
+        <v>15082</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1605,10 +1587,10 @@
         <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>15022</v>
+        <v>28308</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -1623,7 +1605,7 @@
         <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>42903</v>
+        <v>43389</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -1641,10 +1623,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" s="7">
-        <v>76971</v>
+        <v>76028</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -1656,10 +1638,10 @@
         <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I11" s="7">
-        <v>76720</v>
+        <v>78543</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -1674,7 +1656,7 @@
         <v>241</v>
       </c>
       <c r="N11" s="7">
-        <v>153691</v>
+        <v>154571</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -1692,10 +1674,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D12" s="7">
-        <v>47188</v>
+        <v>54514</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -1707,10 +1689,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="7">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I12" s="7">
-        <v>53563</v>
+        <v>50370</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -1725,7 +1707,7 @@
         <v>165</v>
       </c>
       <c r="N12" s="7">
-        <v>100751</v>
+        <v>104885</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -1743,49 +1725,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6155</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="7">
         <v>26</v>
       </c>
-      <c r="D13" s="7">
-        <v>15810</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>17057</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6163</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>21973</v>
+        <v>23212</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,49 +1776,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7129</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="7">
         <v>9</v>
       </c>
-      <c r="D14" s="7">
-        <v>4720</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>5000</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="7">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6906</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
       </c>
       <c r="N14" s="7">
-        <v>11626</v>
+        <v>12128</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,25 +1827,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>257</v>
+      </c>
+      <c r="D15" s="7">
+        <v>158908</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>273</v>
       </c>
-      <c r="D15" s="7">
-        <v>172570</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7">
-        <v>257</v>
-      </c>
       <c r="I15" s="7">
-        <v>158374</v>
+        <v>179278</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1878,7 +1860,7 @@
         <v>530</v>
       </c>
       <c r="N15" s="7">
-        <v>330944</v>
+        <v>338186</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1892,55 +1874,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7">
+        <v>37432</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7">
         <v>45</v>
       </c>
-      <c r="D16" s="7">
-        <v>36857</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>37423</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="7">
-        <v>52</v>
-      </c>
-      <c r="I16" s="7">
-        <v>39564</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
       </c>
       <c r="N16" s="7">
-        <v>76421</v>
+        <v>74855</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,49 +1931,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>123</v>
+      </c>
+      <c r="D17" s="7">
+        <v>94240</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="7">
         <v>119</v>
       </c>
-      <c r="D17" s="7">
-        <v>102356</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>108013</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="7">
-        <v>123</v>
-      </c>
-      <c r="I17" s="7">
-        <v>94814</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>242</v>
       </c>
       <c r="N17" s="7">
-        <v>197170</v>
+        <v>202253</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,49 +1982,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>48</v>
+      </c>
+      <c r="D18" s="7">
+        <v>33764</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="7">
         <v>67</v>
       </c>
-      <c r="D18" s="7">
-        <v>53105</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>56226</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="7">
-        <v>48</v>
-      </c>
-      <c r="I18" s="7">
-        <v>34155</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>115</v>
       </c>
       <c r="N18" s="7">
-        <v>87260</v>
+        <v>89990</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,49 +2033,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6816</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="7">
         <v>10</v>
       </c>
-      <c r="D19" s="7">
-        <v>8264</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>8726</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6748</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>15013</v>
+        <v>15542</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,49 +2084,49 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>819</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>833</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,25 +2135,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>233</v>
+      </c>
+      <c r="D21" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>241</v>
       </c>
-      <c r="D21" s="7">
-        <v>200583</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>233</v>
-      </c>
       <c r="I21" s="7">
-        <v>176113</v>
+        <v>210387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2186,7 +2168,7 @@
         <v>474</v>
       </c>
       <c r="N21" s="7">
-        <v>376696</v>
+        <v>383459</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2200,55 +2182,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7">
+        <v>64498</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="7">
         <v>62</v>
       </c>
-      <c r="D22" s="7">
-        <v>48344</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>47817</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="7">
-        <v>87</v>
-      </c>
-      <c r="I22" s="7">
-        <v>67738</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>149</v>
       </c>
       <c r="N22" s="7">
-        <v>116083</v>
+        <v>112315</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,49 +2239,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>182</v>
+      </c>
+      <c r="D23" s="7">
+        <v>126351</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="7">
         <v>186</v>
       </c>
-      <c r="D23" s="7">
-        <v>161572</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="I23" s="7">
+        <v>169433</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H23" s="7">
-        <v>182</v>
-      </c>
-      <c r="I23" s="7">
-        <v>128533</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>368</v>
       </c>
       <c r="N23" s="7">
-        <v>290105</v>
+        <v>295784</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,49 +2290,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7">
+        <v>73126</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="7">
         <v>78</v>
       </c>
-      <c r="D24" s="7">
-        <v>66569</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>74645</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="7">
-        <v>66</v>
-      </c>
-      <c r="I24" s="7">
-        <v>56005</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>144</v>
       </c>
       <c r="N24" s="7">
-        <v>122573</v>
+        <v>147771</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,49 +2341,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7017</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="7">
         <v>11</v>
       </c>
-      <c r="D25" s="7">
-        <v>9153</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>9604</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3671</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>12824</v>
+        <v>16622</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,49 +2392,49 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2191</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="7">
         <v>4</v>
       </c>
-      <c r="D26" s="7">
-        <v>3356</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>3500</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2369</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>5724</v>
+        <v>5690</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,25 +2443,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>340</v>
+      </c>
+      <c r="D27" s="7">
+        <v>273183</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>341</v>
       </c>
-      <c r="D27" s="7">
-        <v>288994</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>340</v>
-      </c>
       <c r="I27" s="7">
-        <v>258315</v>
+        <v>304999</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2494,7 +2476,7 @@
         <v>681</v>
       </c>
       <c r="N27" s="7">
-        <v>547310</v>
+        <v>578182</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2514,49 +2496,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>175</v>
+      </c>
+      <c r="D28" s="7">
+        <v>121996</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" s="7">
         <v>148</v>
       </c>
-      <c r="D28" s="7">
-        <v>114601</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="I28" s="7">
+        <v>115285</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="7">
-        <v>175</v>
-      </c>
-      <c r="I28" s="7">
-        <v>127540</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>323</v>
       </c>
       <c r="N28" s="7">
-        <v>242141</v>
+        <v>237281</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,49 +2547,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
+        <v>444</v>
+      </c>
+      <c r="D29" s="7">
+        <v>307476</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" s="7">
         <v>440</v>
       </c>
-      <c r="D29" s="7">
-        <v>349833</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="I29" s="7">
+        <v>365120</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H29" s="7">
-        <v>444</v>
-      </c>
-      <c r="I29" s="7">
-        <v>311148</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>884</v>
       </c>
       <c r="N29" s="7">
-        <v>660981</v>
+        <v>672595</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,49 +2598,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
+        <v>219</v>
+      </c>
+      <c r="D30" s="7">
+        <v>172131</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="7">
         <v>239</v>
       </c>
-      <c r="D30" s="7">
-        <v>174838</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="I30" s="7">
+        <v>189597</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30" s="7">
-        <v>219</v>
-      </c>
-      <c r="I30" s="7">
-        <v>154453</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>458</v>
       </c>
       <c r="N30" s="7">
-        <v>329291</v>
+        <v>361728</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,49 +2649,49 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
+        <v>32</v>
+      </c>
+      <c r="D31" s="7">
+        <v>24669</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31" s="7">
         <v>63</v>
       </c>
-      <c r="D31" s="7">
-        <v>40743</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="I31" s="7">
+        <v>43287</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H31" s="7">
-        <v>32</v>
-      </c>
-      <c r="I31" s="7">
-        <v>20891</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>95</v>
       </c>
       <c r="N31" s="7">
-        <v>61634</v>
+        <v>67956</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,49 +2700,49 @@
         <v>50</v>
       </c>
       <c r="C32" s="7">
+        <v>38</v>
+      </c>
+      <c r="D32" s="7">
+        <v>22927</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="7">
         <v>45</v>
       </c>
-      <c r="D32" s="7">
-        <v>24889</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H32" s="7">
-        <v>38</v>
-      </c>
       <c r="I32" s="7">
-        <v>22596</v>
+        <v>26264</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
       </c>
       <c r="N32" s="7">
-        <v>47485</v>
+        <v>49192</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,25 +2751,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>908</v>
+      </c>
+      <c r="D33" s="7">
+        <v>649199</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>935</v>
       </c>
-      <c r="D33" s="7">
-        <v>704904</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>908</v>
-      </c>
       <c r="I33" s="7">
-        <v>636628</v>
+        <v>739553</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -2802,7 +2784,7 @@
         <v>1843</v>
       </c>
       <c r="N33" s="7">
-        <v>1341531</v>
+        <v>1388752</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -2816,7 +2798,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
